--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>177.6999969482422</v>
+        <v>179.4700012207031</v>
       </c>
       <c r="D2" t="n">
-        <v>2.53</v>
+        <v>3.55</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>155.7299957275391</v>
+        <v>157.0599975585938</v>
       </c>
       <c r="D3" t="n">
-        <v>1.79</v>
+        <v>2.66</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>99.44999694824219</v>
+        <v>100.1600036621094</v>
       </c>
       <c r="D4" t="n">
-        <v>29.95</v>
+        <v>30.88</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.40000152587891</v>
+        <v>61.75</v>
       </c>
       <c r="D5" t="n">
-        <v>0.64</v>
+        <v>1.21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75.16000366210938</v>
+        <v>75.30000305175781</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.63</v>
+        <v>-2.45</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>149.5599975585938</v>
+        <v>150.9100036621094</v>
       </c>
       <c r="D7" t="n">
-        <v>7.17</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>107.370002746582</v>
+        <v>108.1800003051758</v>
       </c>
       <c r="D8" t="n">
-        <v>3.16</v>
+        <v>3.94</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.11000061035156</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.86</v>
+        <v>-3.56</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>271.1499938964844</v>
+        <v>273.8399963378906</v>
       </c>
       <c r="D10" t="n">
-        <v>17.47</v>
+        <v>18.64</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>84.41000366210938</v>
+        <v>84.27999877929688</v>
       </c>
       <c r="D11" t="n">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>179.4700012207031</v>
+        <v>178.1100006103516</v>
       </c>
       <c r="D2" t="n">
-        <v>3.55</v>
+        <v>2.76</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>157.0599975585938</v>
+        <v>155.9600067138672</v>
       </c>
       <c r="D3" t="n">
-        <v>2.66</v>
+        <v>1.94</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.1600036621094</v>
+        <v>101.0999984741211</v>
       </c>
       <c r="D4" t="n">
-        <v>30.88</v>
+        <v>32.11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.75</v>
+        <v>60.84999847412109</v>
       </c>
       <c r="D5" t="n">
-        <v>1.21</v>
+        <v>-0.26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75.30000305175781</v>
+        <v>74.98000335693359</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.45</v>
+        <v>-2.86</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>150.9100036621094</v>
+        <v>152.3500061035156</v>
       </c>
       <c r="D7" t="n">
-        <v>8.140000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>108.1800003051758</v>
+        <v>111.0999984741211</v>
       </c>
       <c r="D8" t="n">
-        <v>3.94</v>
+        <v>6.74</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.79999923706055</v>
+        <v>44.06000137329102</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.56</v>
+        <v>-0.72</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>273.8399963378906</v>
+        <v>269.8999938964844</v>
       </c>
       <c r="D10" t="n">
-        <v>18.64</v>
+        <v>16.93</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>84.27999877929688</v>
+        <v>85.13999938964844</v>
       </c>
       <c r="D11" t="n">
-        <v>2.01</v>
+        <v>3.05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>178.1100006103516</v>
+        <v>179.5299987792969</v>
       </c>
       <c r="D2" t="n">
-        <v>2.76</v>
+        <v>3.58</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>155.9600067138672</v>
+        <v>159.2899932861328</v>
       </c>
       <c r="D3" t="n">
-        <v>1.94</v>
+        <v>4.12</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.0999984741211</v>
+        <v>101.5899963378906</v>
       </c>
       <c r="D4" t="n">
-        <v>32.11</v>
+        <v>32.75</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>60.84999847412109</v>
+        <v>60.90999984741211</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.26</v>
+        <v>-0.16</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>74.98000335693359</v>
+        <v>74.95999908447266</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.86</v>
+        <v>-2.89</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>152.3500061035156</v>
+        <v>154.0899963378906</v>
       </c>
       <c r="D7" t="n">
-        <v>9.17</v>
+        <v>10.42</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>111.0999984741211</v>
+        <v>110.2799987792969</v>
       </c>
       <c r="D8" t="n">
-        <v>6.74</v>
+        <v>5.96</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.06000137329102</v>
+        <v>43.79000091552734</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.72</v>
+        <v>-1.33</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>269.8999938964844</v>
+        <v>272.4400024414062</v>
       </c>
       <c r="D10" t="n">
-        <v>16.93</v>
+        <v>18.03</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>85.13999938964844</v>
+        <v>87.44000244140625</v>
       </c>
       <c r="D11" t="n">
-        <v>3.05</v>
+        <v>5.83</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>179.5299987792969</v>
+        <v>179.5500030517578</v>
       </c>
       <c r="D2" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>159.2899932861328</v>
+        <v>158.2599945068359</v>
       </c>
       <c r="D3" t="n">
-        <v>4.12</v>
+        <v>3.44</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.5899963378906</v>
+        <v>101.6900024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>32.75</v>
+        <v>32.88</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>60.90999984741211</v>
+        <v>60.88999938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>74.95999908447266</v>
+        <v>74.91999816894531</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.89</v>
+        <v>-2.94</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>154.0899963378906</v>
+        <v>153.8000030517578</v>
       </c>
       <c r="D7" t="n">
-        <v>10.42</v>
+        <v>10.21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>110.2799987792969</v>
+        <v>109.9499969482422</v>
       </c>
       <c r="D8" t="n">
-        <v>5.96</v>
+        <v>5.64</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.79000091552734</v>
+        <v>43.77000045776367</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.33</v>
+        <v>-1.37</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>272.4400024414062</v>
+        <v>271.8599853515625</v>
       </c>
       <c r="D10" t="n">
-        <v>18.03</v>
+        <v>17.78</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>87.44000244140625</v>
+        <v>87.38999938964844</v>
       </c>
       <c r="D11" t="n">
-        <v>5.83</v>
+        <v>5.77</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>179.5500030517578</v>
+        <v>180.1199951171875</v>
       </c>
       <c r="D2" t="n">
-        <v>3.59</v>
+        <v>3.92</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>158.2599945068359</v>
+        <v>159.3300018310547</v>
       </c>
       <c r="D3" t="n">
-        <v>3.44</v>
+        <v>4.14</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.6900024414062</v>
+        <v>101.2699966430664</v>
       </c>
       <c r="D4" t="n">
-        <v>32.88</v>
+        <v>32.33</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>60.88999938964844</v>
+        <v>60.31999969482422</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2</v>
+        <v>-1.13</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>74.91999816894531</v>
+        <v>75.01000213623047</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.94</v>
+        <v>-2.82</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>153.8000030517578</v>
+        <v>152.9600067138672</v>
       </c>
       <c r="D7" t="n">
-        <v>10.21</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>109.9499969482422</v>
+        <v>108.8300018310547</v>
       </c>
       <c r="D8" t="n">
-        <v>5.64</v>
+        <v>4.56</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.77000045776367</v>
+        <v>43.38999938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.37</v>
+        <v>-2.23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>271.8599853515625</v>
+        <v>274.8500061035156</v>
       </c>
       <c r="D10" t="n">
-        <v>17.78</v>
+        <v>19.08</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>87.38999938964844</v>
+        <v>85.98000335693359</v>
       </c>
       <c r="D11" t="n">
-        <v>5.77</v>
+        <v>4.07</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>180.1199951171875</v>
+        <v>180.3899993896484</v>
       </c>
       <c r="D2" t="n">
-        <v>3.92</v>
+        <v>4.08</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>159.3300018310547</v>
+        <v>153.9900054931641</v>
       </c>
       <c r="D3" t="n">
-        <v>4.14</v>
+        <v>0.65</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.2699966430664</v>
+        <v>101.4000015258789</v>
       </c>
       <c r="D4" t="n">
-        <v>32.33</v>
+        <v>32.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>60.31999969482422</v>
+        <v>60.54999923706055</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.13</v>
+        <v>-0.75</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75.01000213623047</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.82</v>
+        <v>-2.69</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>152.9600067138672</v>
+        <v>154.2100067138672</v>
       </c>
       <c r="D7" t="n">
-        <v>9.609999999999999</v>
+        <v>10.51</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>108.8300018310547</v>
+        <v>110.5400009155273</v>
       </c>
       <c r="D8" t="n">
-        <v>4.56</v>
+        <v>6.21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.38999938964844</v>
+        <v>43.97000122070312</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.23</v>
+        <v>-0.92</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>274.8500061035156</v>
+        <v>274.1000061035156</v>
       </c>
       <c r="D10" t="n">
-        <v>19.08</v>
+        <v>18.75</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>85.98000335693359</v>
+        <v>85.94999694824219</v>
       </c>
       <c r="D11" t="n">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>180.3899993896484</v>
+        <v>181.2899932861328</v>
       </c>
       <c r="D2" t="n">
-        <v>4.08</v>
+        <v>4.6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>153.9900054931641</v>
+        <v>156.4900054931641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>2.29</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.4000015258789</v>
+        <v>101.4400024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>32.5</v>
+        <v>32.55</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>60.54999923706055</v>
+        <v>59.95000076293945</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.75</v>
+        <v>-1.74</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75.11000061035156</v>
+        <v>75.01999664306641</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.69</v>
+        <v>-2.81</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>154.2100067138672</v>
+        <v>154.75</v>
       </c>
       <c r="D7" t="n">
-        <v>10.51</v>
+        <v>10.89</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>110.5400009155273</v>
+        <v>111.4499969482422</v>
       </c>
       <c r="D8" t="n">
-        <v>6.21</v>
+        <v>7.08</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.97000122070312</v>
+        <v>43.77999877929688</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.92</v>
+        <v>-1.35</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>274.1000061035156</v>
+        <v>273.7300109863281</v>
       </c>
       <c r="D10" t="n">
-        <v>18.75</v>
+        <v>18.59</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>85.94999694824219</v>
+        <v>85.61000061035156</v>
       </c>
       <c r="D11" t="n">
-        <v>4.03</v>
+        <v>3.62</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>181.2899932861328</v>
+        <v>182.3300018310547</v>
       </c>
       <c r="D2" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>156.4900054931641</v>
+        <v>157.4299926757812</v>
       </c>
       <c r="D3" t="n">
-        <v>2.29</v>
+        <v>2.9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.4400024414062</v>
+        <v>100.9800033569336</v>
       </c>
       <c r="D4" t="n">
-        <v>32.55</v>
+        <v>31.95</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>59.95000076293945</v>
+        <v>60.79999923706055</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.74</v>
+        <v>-0.34</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75.01999664306641</v>
+        <v>75.30000305175781</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.81</v>
+        <v>-2.45</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>154.75</v>
+        <v>156.6100006103516</v>
       </c>
       <c r="D7" t="n">
-        <v>10.89</v>
+        <v>12.23</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>111.4499969482422</v>
+        <v>112.6600036621094</v>
       </c>
       <c r="D8" t="n">
-        <v>7.08</v>
+        <v>8.24</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.77999877929688</v>
+        <v>43.45999908447266</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.35</v>
+        <v>-2.07</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>273.7300109863281</v>
+        <v>275.3399963378906</v>
       </c>
       <c r="D10" t="n">
-        <v>18.59</v>
+        <v>19.29</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>85.61000061035156</v>
+        <v>87.34999847412109</v>
       </c>
       <c r="D11" t="n">
-        <v>3.62</v>
+        <v>5.73</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>182.3300018310547</v>
+        <v>180.3699951171875</v>
       </c>
       <c r="D2" t="n">
-        <v>5.2</v>
+        <v>4.07</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>157.4299926757812</v>
+        <v>153.4199981689453</v>
       </c>
       <c r="D3" t="n">
-        <v>2.9</v>
+        <v>0.28</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.9800033569336</v>
+        <v>100.6900024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>31.95</v>
+        <v>31.57</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>60.79999923706055</v>
+        <v>60.97000122070312</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.34</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75.30000305175781</v>
+        <v>74.66999816894531</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.45</v>
+        <v>-3.26</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>156.6100006103516</v>
+        <v>155.6600036621094</v>
       </c>
       <c r="D7" t="n">
-        <v>12.23</v>
+        <v>11.54</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>112.6600036621094</v>
+        <v>111.6900024414062</v>
       </c>
       <c r="D8" t="n">
-        <v>8.24</v>
+        <v>7.31</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.45999908447266</v>
+        <v>43.90999984741211</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.07</v>
+        <v>-1.06</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>275.3399963378906</v>
+        <v>272.4500122070312</v>
       </c>
       <c r="D10" t="n">
-        <v>19.29</v>
+        <v>18.04</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>87.34999847412109</v>
+        <v>86.37999725341797</v>
       </c>
       <c r="D11" t="n">
-        <v>5.73</v>
+        <v>4.55</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>180.3699951171875</v>
+        <v>180.6300048828125</v>
       </c>
       <c r="D2" t="n">
-        <v>4.07</v>
+        <v>4.22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>153.4199981689453</v>
+        <v>159.9499969482422</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>4.55</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.6900024414062</v>
+        <v>101.4800033569336</v>
       </c>
       <c r="D4" t="n">
-        <v>31.57</v>
+        <v>32.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>60.97000122070312</v>
+        <v>61.91999816894531</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1.49</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>74.66999816894531</v>
+        <v>74.79000091552734</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.26</v>
+        <v>-3.11</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>155.6600036621094</v>
+        <v>155.5599975585938</v>
       </c>
       <c r="D7" t="n">
-        <v>11.54</v>
+        <v>11.47</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>111.6900024414062</v>
+        <v>111.2200012207031</v>
       </c>
       <c r="D8" t="n">
-        <v>7.31</v>
+        <v>6.86</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.90999984741211</v>
+        <v>43.56999969482422</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.06</v>
+        <v>-1.83</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>272.4500122070312</v>
+        <v>293.5299987792969</v>
       </c>
       <c r="D10" t="n">
-        <v>18.04</v>
+        <v>27.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>86.37999725341797</v>
+        <v>87.51999664306641</v>
       </c>
       <c r="D11" t="n">
-        <v>4.55</v>
+        <v>5.93</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>180.6300048828125</v>
+        <v>179.3500061035156</v>
       </c>
       <c r="D2" t="n">
-        <v>4.22</v>
+        <v>3.48</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>159.9499969482422</v>
+        <v>157.8600006103516</v>
       </c>
       <c r="D3" t="n">
-        <v>4.55</v>
+        <v>3.18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.4800033569336</v>
+        <v>100.870002746582</v>
       </c>
       <c r="D4" t="n">
-        <v>32.6</v>
+        <v>31.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.91999816894531</v>
+        <v>62.09999847412109</v>
       </c>
       <c r="D5" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>74.79000091552734</v>
+        <v>74.83999633789062</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.11</v>
+        <v>-3.04</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>155.5599975585938</v>
+        <v>154.6900024414062</v>
       </c>
       <c r="D7" t="n">
-        <v>11.47</v>
+        <v>10.85</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>111.2200012207031</v>
+        <v>111.3300018310547</v>
       </c>
       <c r="D8" t="n">
-        <v>6.86</v>
+        <v>6.97</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.56999969482422</v>
+        <v>42.97000122070312</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.83</v>
+        <v>-3.18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>293.5299987792969</v>
+        <v>288.510009765625</v>
       </c>
       <c r="D10" t="n">
-        <v>27.17</v>
+        <v>24.99</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>87.51999664306641</v>
+        <v>86.87000274658203</v>
       </c>
       <c r="D11" t="n">
-        <v>5.93</v>
+        <v>5.14</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>179.3500061035156</v>
+        <v>180.6300048828125</v>
       </c>
       <c r="D2" t="n">
-        <v>3.48</v>
+        <v>4.22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>157.8600006103516</v>
+        <v>164.1199951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>3.18</v>
+        <v>7.27</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.870002746582</v>
+        <v>101.2900009155273</v>
       </c>
       <c r="D4" t="n">
-        <v>31.8</v>
+        <v>32.35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>62.09999847412109</v>
+        <v>61.90999984741211</v>
       </c>
       <c r="D5" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>74.83999633789062</v>
+        <v>75.34999847412109</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.04</v>
+        <v>-2.38</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>154.6900024414062</v>
+        <v>155.6699981689453</v>
       </c>
       <c r="D7" t="n">
-        <v>10.85</v>
+        <v>11.55</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>111.3300018310547</v>
+        <v>110.620002746582</v>
       </c>
       <c r="D8" t="n">
-        <v>6.97</v>
+        <v>6.28</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.97000122070312</v>
+        <v>42.33000183105469</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.18</v>
+        <v>-4.62</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>288.510009765625</v>
+        <v>288.989990234375</v>
       </c>
       <c r="D10" t="n">
-        <v>24.99</v>
+        <v>25.2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>86.87000274658203</v>
+        <v>90.01999664306641</v>
       </c>
       <c r="D11" t="n">
-        <v>5.14</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>180.6300048828125</v>
+        <v>182.7799987792969</v>
       </c>
       <c r="D2" t="n">
-        <v>4.22</v>
+        <v>5.46</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>164.1199951171875</v>
+        <v>174.2100067138672</v>
       </c>
       <c r="D3" t="n">
-        <v>7.27</v>
+        <v>13.87</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.2900009155273</v>
+        <v>101.6699981689453</v>
       </c>
       <c r="D4" t="n">
-        <v>32.35</v>
+        <v>32.85</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.90999984741211</v>
+        <v>61.58000183105469</v>
       </c>
       <c r="D5" t="n">
-        <v>1.48</v>
+        <v>0.93</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75.34999847412109</v>
+        <v>75.66000366210938</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.38</v>
+        <v>-1.98</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>155.6699981689453</v>
+        <v>157.1900024414062</v>
       </c>
       <c r="D7" t="n">
-        <v>11.55</v>
+        <v>12.64</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>110.620002746582</v>
+        <v>110.2900009155273</v>
       </c>
       <c r="D8" t="n">
-        <v>6.28</v>
+        <v>5.97</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.33000183105469</v>
+        <v>42.61999893188477</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.62</v>
+        <v>-3.97</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>288.989990234375</v>
+        <v>287.6499938964844</v>
       </c>
       <c r="D10" t="n">
-        <v>25.2</v>
+        <v>24.62</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.01999664306641</v>
+        <v>93.66999816894531</v>
       </c>
       <c r="D11" t="n">
-        <v>8.960000000000001</v>
+        <v>13.37</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>182.7799987792969</v>
+        <v>182.1399993896484</v>
       </c>
       <c r="D2" t="n">
-        <v>5.46</v>
+        <v>5.09</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>174.2100067138672</v>
+        <v>174.3600006103516</v>
       </c>
       <c r="D3" t="n">
-        <v>13.87</v>
+        <v>13.97</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.6699981689453</v>
+        <v>101.0100021362305</v>
       </c>
       <c r="D4" t="n">
-        <v>32.85</v>
+        <v>31.99</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.58000183105469</v>
+        <v>61.88000106811523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>1.43</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75.66000366210938</v>
+        <v>75.76000213623047</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.98</v>
+        <v>-1.85</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>157.1900024414062</v>
+        <v>156.8500061035156</v>
       </c>
       <c r="D7" t="n">
-        <v>12.64</v>
+        <v>12.4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>110.2900009155273</v>
+        <v>106.3499984741211</v>
       </c>
       <c r="D8" t="n">
-        <v>5.97</v>
+        <v>2.18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.61999893188477</v>
+        <v>42.29999923706055</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.97</v>
+        <v>-4.69</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>287.6499938964844</v>
+        <v>287.1600036621094</v>
       </c>
       <c r="D10" t="n">
-        <v>24.62</v>
+        <v>24.41</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>93.66999816894531</v>
+        <v>92.30999755859375</v>
       </c>
       <c r="D11" t="n">
-        <v>13.37</v>
+        <v>11.73</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>182.1399993896484</v>
+        <v>182.3600006103516</v>
       </c>
       <c r="D2" t="n">
-        <v>5.09</v>
+        <v>5.22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>174.3600006103516</v>
+        <v>175.7899932861328</v>
       </c>
       <c r="D3" t="n">
-        <v>13.97</v>
+        <v>14.9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.0100021362305</v>
+        <v>101.8199996948242</v>
       </c>
       <c r="D4" t="n">
-        <v>31.99</v>
+        <v>33.05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.88000106811523</v>
+        <v>61.0099983215332</v>
       </c>
       <c r="D5" t="n">
-        <v>1.43</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>75.76000213623047</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.85</v>
+        <v>-1.54</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>156.8500061035156</v>
+        <v>157.3000030517578</v>
       </c>
       <c r="D7" t="n">
-        <v>12.4</v>
+        <v>12.72</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106.3499984741211</v>
+        <v>106.0299987792969</v>
       </c>
       <c r="D8" t="n">
-        <v>2.18</v>
+        <v>1.87</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.29999923706055</v>
+        <v>41.83000183105469</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.69</v>
+        <v>-5.75</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>287.1600036621094</v>
+        <v>278.3099975585938</v>
       </c>
       <c r="D10" t="n">
-        <v>24.41</v>
+        <v>20.57</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.30999755859375</v>
+        <v>90.76999664306641</v>
       </c>
       <c r="D11" t="n">
-        <v>11.73</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>182.3600006103516</v>
+        <v>181.2100067138672</v>
       </c>
       <c r="D2" t="n">
-        <v>5.22</v>
+        <v>4.55</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>175.7899932861328</v>
+        <v>168.4499969482422</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9</v>
+        <v>10.11</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.8199996948242</v>
+        <v>102.1699981689453</v>
       </c>
       <c r="D4" t="n">
-        <v>33.05</v>
+        <v>33.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.0099983215332</v>
+        <v>61.5</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>76</v>
+        <v>76.69000244140625</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.54</v>
+        <v>-0.65</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>157.3000030517578</v>
+        <v>156.2700042724609</v>
       </c>
       <c r="D7" t="n">
-        <v>12.72</v>
+        <v>11.98</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106.0299987792969</v>
+        <v>106.5199966430664</v>
       </c>
       <c r="D8" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.83000183105469</v>
+        <v>42.43999862670898</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.75</v>
+        <v>-4.37</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>278.3099975585938</v>
+        <v>275.6099853515625</v>
       </c>
       <c r="D10" t="n">
-        <v>20.57</v>
+        <v>19.4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.76999664306641</v>
+        <v>90.40000152587891</v>
       </c>
       <c r="D11" t="n">
-        <v>9.859999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>181.2100067138672</v>
+        <v>182.4199981689453</v>
       </c>
       <c r="D2" t="n">
-        <v>4.55</v>
+        <v>5.25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>168.4499969482422</v>
+        <v>166.0599975585938</v>
       </c>
       <c r="D3" t="n">
-        <v>10.11</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.1699981689453</v>
+        <v>102.4400024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>33.5</v>
+        <v>33.86</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.5</v>
+        <v>61.84000015258789</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>76.69000244140625</v>
+        <v>77.26999664306641</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.65</v>
+        <v>0.1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>156.2700042724609</v>
+        <v>156.1000061035156</v>
       </c>
       <c r="D7" t="n">
-        <v>11.98</v>
+        <v>11.86</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106.5199966430664</v>
+        <v>105.120002746582</v>
       </c>
       <c r="D8" t="n">
-        <v>2.34</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.43999862670898</v>
+        <v>42.68000030517578</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.37</v>
+        <v>-3.83</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>275.6099853515625</v>
+        <v>276.5</v>
       </c>
       <c r="D10" t="n">
-        <v>19.4</v>
+        <v>19.79</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.40000152587891</v>
+        <v>92.12000274658203</v>
       </c>
       <c r="D11" t="n">
-        <v>9.42</v>
+        <v>11.5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>182.4199981689453</v>
+        <v>180.0700073242188</v>
       </c>
       <c r="D2" t="n">
-        <v>5.25</v>
+        <v>3.89</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>166.0599975585938</v>
+        <v>166.5200042724609</v>
       </c>
       <c r="D3" t="n">
-        <v>8.539999999999999</v>
+        <v>8.84</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.4400024414062</v>
+        <v>102.129997253418</v>
       </c>
       <c r="D4" t="n">
-        <v>33.86</v>
+        <v>33.45</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.84000015258789</v>
+        <v>62.02999877929688</v>
       </c>
       <c r="D5" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.26999664306641</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>156.1000061035156</v>
+        <v>155.6799926757812</v>
       </c>
       <c r="D7" t="n">
-        <v>11.86</v>
+        <v>11.56</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>105.120002746582</v>
+        <v>103.8600006103516</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>-0.21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.68000030517578</v>
+        <v>43.13999938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.83</v>
+        <v>-2.79</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>276.5</v>
+        <v>280.3099975585938</v>
       </c>
       <c r="D10" t="n">
-        <v>19.79</v>
+        <v>21.44</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.12000274658203</v>
+        <v>92.02999877929688</v>
       </c>
       <c r="D11" t="n">
-        <v>11.5</v>
+        <v>11.39</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>180.0700073242188</v>
+        <v>180.9700012207031</v>
       </c>
       <c r="D2" t="n">
-        <v>3.89</v>
+        <v>4.41</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>166.5200042724609</v>
+        <v>170.6199951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>8.84</v>
+        <v>11.52</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.129997253418</v>
+        <v>102.6500015258789</v>
       </c>
       <c r="D4" t="n">
-        <v>33.45</v>
+        <v>34.13</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>62.02999877929688</v>
+        <v>61.66999816894531</v>
       </c>
       <c r="D5" t="n">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.33999633789062</v>
+        <v>77.62999725341797</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>0.57</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>155.6799926757812</v>
+        <v>156.8600006103516</v>
       </c>
       <c r="D7" t="n">
-        <v>11.56</v>
+        <v>12.4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.8600006103516</v>
+        <v>105.4199981689453</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.21</v>
+        <v>1.29</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.13999938964844</v>
+        <v>43.0099983215332</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.79</v>
+        <v>-3.09</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>280.3099975585938</v>
+        <v>278.8599853515625</v>
       </c>
       <c r="D10" t="n">
-        <v>21.44</v>
+        <v>20.81</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.02999877929688</v>
+        <v>92.66000366210938</v>
       </c>
       <c r="D11" t="n">
-        <v>11.39</v>
+        <v>12.15</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>180.9700012207031</v>
+        <v>179.1900024414062</v>
       </c>
       <c r="D2" t="n">
-        <v>4.41</v>
+        <v>3.39</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>170.6199951171875</v>
+        <v>174.1600036621094</v>
       </c>
       <c r="D3" t="n">
-        <v>11.52</v>
+        <v>13.84</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.6500015258789</v>
+        <v>101.7900009155273</v>
       </c>
       <c r="D4" t="n">
-        <v>34.13</v>
+        <v>33.01</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.66999816894531</v>
+        <v>61.33000183105469</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>0.52</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.62999725341797</v>
+        <v>77.29000091552734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.57</v>
+        <v>0.13</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>156.8600006103516</v>
+        <v>155.7299957275391</v>
       </c>
       <c r="D7" t="n">
-        <v>12.4</v>
+        <v>11.59</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>105.4199981689453</v>
+        <v>104.2900009155273</v>
       </c>
       <c r="D8" t="n">
-        <v>1.29</v>
+        <v>0.2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.0099983215332</v>
+        <v>43.86999893188477</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.09</v>
+        <v>-1.15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>278.8599853515625</v>
+        <v>275.7300109863281</v>
       </c>
       <c r="D10" t="n">
-        <v>20.81</v>
+        <v>19.46</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.66000366210938</v>
+        <v>92.76000213623047</v>
       </c>
       <c r="D11" t="n">
-        <v>12.15</v>
+        <v>12.27</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>179.1900024414062</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="D2" t="n">
-        <v>3.39</v>
+        <v>3.05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>174.1600036621094</v>
+        <v>171.9700012207031</v>
       </c>
       <c r="D3" t="n">
-        <v>13.84</v>
+        <v>12.41</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.7900009155273</v>
+        <v>101.3099975585938</v>
       </c>
       <c r="D4" t="n">
-        <v>33.01</v>
+        <v>32.38</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>61.33000183105469</v>
+        <v>62.08000183105469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52</v>
+        <v>1.75</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.29000091552734</v>
+        <v>77.09999847412109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>155.7299957275391</v>
+        <v>156.0599975585938</v>
       </c>
       <c r="D7" t="n">
-        <v>11.59</v>
+        <v>11.83</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.2900009155273</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.86999893188477</v>
+        <v>44.38999938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.15</v>
+        <v>0.02</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>275.7300109863281</v>
+        <v>275.7799987792969</v>
       </c>
       <c r="D10" t="n">
-        <v>19.46</v>
+        <v>19.48</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.76000213623047</v>
+        <v>93.34999847412109</v>
       </c>
       <c r="D11" t="n">
-        <v>12.27</v>
+        <v>12.99</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>178.6100006103516</v>
+        <v>179.0700073242188</v>
       </c>
       <c r="D2" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>171.9700012207031</v>
+        <v>170.3399963378906</v>
       </c>
       <c r="D3" t="n">
-        <v>12.41</v>
+        <v>11.34</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.3099975585938</v>
+        <v>101.8000030517578</v>
       </c>
       <c r="D4" t="n">
-        <v>32.38</v>
+        <v>33.02</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>62.08000183105469</v>
+        <v>62.25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.75</v>
+        <v>2.03</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.09999847412109</v>
+        <v>77.51000213623047</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.12</v>
+        <v>0.41</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>156.0599975585938</v>
+        <v>153.9100036621094</v>
       </c>
       <c r="D7" t="n">
-        <v>11.83</v>
+        <v>10.29</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>105</v>
+        <v>104.8300018310547</v>
       </c>
       <c r="D8" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.38999938964844</v>
+        <v>44.11999893188477</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02</v>
+        <v>-0.59</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>275.7799987792969</v>
+        <v>276.2300109863281</v>
       </c>
       <c r="D10" t="n">
-        <v>19.48</v>
+        <v>19.67</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>93.34999847412109</v>
+        <v>93.40000152587891</v>
       </c>
       <c r="D11" t="n">
-        <v>12.99</v>
+        <v>13.05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>179.0700073242188</v>
+        <v>177.7899932861328</v>
       </c>
       <c r="D2" t="n">
-        <v>3.32</v>
+        <v>2.58</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>170.3399963378906</v>
+        <v>169.3699951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>11.34</v>
+        <v>10.71</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.8000030517578</v>
+        <v>100.9199981689453</v>
       </c>
       <c r="D4" t="n">
-        <v>33.02</v>
+        <v>31.87</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>62.25</v>
+        <v>62.75</v>
       </c>
       <c r="D5" t="n">
-        <v>2.03</v>
+        <v>2.85</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.51000213623047</v>
+        <v>77.08999633789062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.41</v>
+        <v>-0.13</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>153.9100036621094</v>
+        <v>152.9400024414062</v>
       </c>
       <c r="D7" t="n">
-        <v>10.29</v>
+        <v>9.6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.8300018310547</v>
+        <v>101.9000015258789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.72</v>
+        <v>-2.09</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.11999893188477</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.59</v>
+        <v>-1.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>276.2300109863281</v>
+        <v>278.0799865722656</v>
       </c>
       <c r="D10" t="n">
-        <v>19.67</v>
+        <v>20.47</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>93.40000152587891</v>
+        <v>92.80999755859375</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05</v>
+        <v>12.33</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>177.7899932861328</v>
+        <v>177.4799957275391</v>
       </c>
       <c r="D2" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>169.3699951171875</v>
+        <v>163.6300048828125</v>
       </c>
       <c r="D3" t="n">
-        <v>10.71</v>
+        <v>6.95</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.9199981689453</v>
+        <v>100.0899963378906</v>
       </c>
       <c r="D4" t="n">
-        <v>31.87</v>
+        <v>30.79</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>62.75</v>
+        <v>63.72999954223633</v>
       </c>
       <c r="D5" t="n">
-        <v>2.85</v>
+        <v>4.46</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.08999633789062</v>
+        <v>76.52999877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.13</v>
+        <v>-0.86</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>152.9400024414062</v>
+        <v>152.9199981689453</v>
       </c>
       <c r="D7" t="n">
-        <v>9.6</v>
+        <v>9.58</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>101.9000015258789</v>
+        <v>100.5599975585938</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.09</v>
+        <v>-3.38</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.86000061035156</v>
+        <v>42.72000122070312</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.17</v>
+        <v>-3.74</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>278.0799865722656</v>
+        <v>277.4500122070312</v>
       </c>
       <c r="D10" t="n">
-        <v>20.47</v>
+        <v>20.2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.80999755859375</v>
+        <v>90.11000061035156</v>
       </c>
       <c r="D11" t="n">
-        <v>12.33</v>
+        <v>9.07</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>177.4799957275391</v>
+        <v>180.0599975585938</v>
       </c>
       <c r="D2" t="n">
-        <v>2.4</v>
+        <v>3.89</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>163.6300048828125</v>
+        <v>175.1600036621094</v>
       </c>
       <c r="D3" t="n">
-        <v>6.95</v>
+        <v>14.49</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.0899963378906</v>
+        <v>100.5299987792969</v>
       </c>
       <c r="D4" t="n">
-        <v>30.79</v>
+        <v>31.36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>63.72999954223633</v>
+        <v>64.40000152587891</v>
       </c>
       <c r="D5" t="n">
-        <v>4.46</v>
+        <v>5.56</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>76.52999877929688</v>
+        <v>76.62999725341797</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.86</v>
+        <v>-0.73</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>152.9199981689453</v>
+        <v>154.2200012207031</v>
       </c>
       <c r="D7" t="n">
-        <v>9.58</v>
+        <v>10.51</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>100.5599975585938</v>
+        <v>103.4199981689453</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.38</v>
+        <v>-0.63</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.72000122070312</v>
+        <v>43.29999923706055</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.74</v>
+        <v>-2.43</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>277.4500122070312</v>
+        <v>275.0299987792969</v>
       </c>
       <c r="D10" t="n">
-        <v>20.2</v>
+        <v>19.15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.11000061035156</v>
+        <v>92.58000183105469</v>
       </c>
       <c r="D11" t="n">
-        <v>9.07</v>
+        <v>12.06</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>180.0599975585938</v>
+        <v>181.7799987792969</v>
       </c>
       <c r="D2" t="n">
-        <v>3.89</v>
+        <v>4.88</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>175.1600036621094</v>
+        <v>212.8200073242188</v>
       </c>
       <c r="D3" t="n">
-        <v>14.49</v>
+        <v>39.11</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.5299987792969</v>
+        <v>101.0400009155273</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36</v>
+        <v>32.03</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>64.40000152587891</v>
+        <v>64.62000274658203</v>
       </c>
       <c r="D5" t="n">
-        <v>5.56</v>
+        <v>5.92</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>76.62999725341797</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.73</v>
+        <v>-0.98</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>154.2200012207031</v>
+        <v>154.7200012207031</v>
       </c>
       <c r="D7" t="n">
-        <v>10.51</v>
+        <v>10.87</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.4199981689453</v>
+        <v>105.1800003051758</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.63</v>
+        <v>1.06</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.29999923706055</v>
+        <v>43.11999893188477</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.43</v>
+        <v>-2.84</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>275.0299987792969</v>
+        <v>247.3600006103516</v>
       </c>
       <c r="D10" t="n">
-        <v>19.15</v>
+        <v>7.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.58000183105469</v>
+        <v>92.87000274658203</v>
       </c>
       <c r="D11" t="n">
-        <v>12.06</v>
+        <v>12.41</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>181.7799987792969</v>
+        <v>182.1199951171875</v>
       </c>
       <c r="D2" t="n">
-        <v>4.88</v>
+        <v>5.08</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>212.8200073242188</v>
+        <v>207.5599975585938</v>
       </c>
       <c r="D3" t="n">
-        <v>39.11</v>
+        <v>35.67</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>101.0400009155273</v>
+        <v>100.2399978637695</v>
       </c>
       <c r="D4" t="n">
-        <v>32.03</v>
+        <v>30.98</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>64.62000274658203</v>
+        <v>64.76000213623047</v>
       </c>
       <c r="D5" t="n">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>76.43000030517578</v>
+        <v>76.69999694824219</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.98</v>
+        <v>-0.63</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>154.7200012207031</v>
+        <v>154.8300018310547</v>
       </c>
       <c r="D7" t="n">
-        <v>10.87</v>
+        <v>10.95</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>105.1800003051758</v>
+        <v>103.6399993896484</v>
       </c>
       <c r="D8" t="n">
-        <v>1.06</v>
+        <v>-0.42</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.11999893188477</v>
+        <v>41.81000137329102</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.84</v>
+        <v>-5.79</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>247.3600006103516</v>
+        <v>249.6999969482422</v>
       </c>
       <c r="D10" t="n">
-        <v>7.17</v>
+        <v>8.18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.87000274658203</v>
+        <v>89.30000305175781</v>
       </c>
       <c r="D11" t="n">
-        <v>12.41</v>
+        <v>8.09</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>182.1199951171875</v>
+        <v>182.3699951171875</v>
       </c>
       <c r="D2" t="n">
-        <v>5.08</v>
+        <v>5.22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>207.5599975585938</v>
+        <v>205.8200073242188</v>
       </c>
       <c r="D3" t="n">
-        <v>35.67</v>
+        <v>34.53</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.2399978637695</v>
+        <v>100.7600021362305</v>
       </c>
       <c r="D4" t="n">
-        <v>30.98</v>
+        <v>31.66</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>64.76000213623047</v>
+        <v>64.69000244140625</v>
       </c>
       <c r="D5" t="n">
-        <v>6.15</v>
+        <v>6.03</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>76.69999694824219</v>
+        <v>77.02999877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.63</v>
+        <v>-0.21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>154.8300018310547</v>
+        <v>155.2100067138672</v>
       </c>
       <c r="D7" t="n">
-        <v>10.95</v>
+        <v>11.22</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.6399993896484</v>
+        <v>103.2699966430664</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.42</v>
+        <v>-0.78</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.81000137329102</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.79</v>
+        <v>-6.02</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>249.6999969482422</v>
+        <v>247.3899993896484</v>
       </c>
       <c r="D10" t="n">
-        <v>8.18</v>
+        <v>7.18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>89.30000305175781</v>
+        <v>89.02999877929688</v>
       </c>
       <c r="D11" t="n">
-        <v>8.09</v>
+        <v>7.76</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>182.3699951171875</v>
+        <v>183.8699951171875</v>
       </c>
       <c r="D2" t="n">
-        <v>5.22</v>
+        <v>6.09</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>205.8200073242188</v>
+        <v>203.3800048828125</v>
       </c>
       <c r="D3" t="n">
-        <v>34.53</v>
+        <v>32.94</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.7600021362305</v>
+        <v>100.7799987792969</v>
       </c>
       <c r="D4" t="n">
-        <v>31.66</v>
+        <v>31.69</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>64.69000244140625</v>
+        <v>65.47000122070312</v>
       </c>
       <c r="D5" t="n">
-        <v>6.03</v>
+        <v>7.31</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.02999877929688</v>
+        <v>77.30000305175781</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.21</v>
+        <v>0.14</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>155.2100067138672</v>
+        <v>155.4299926757812</v>
       </c>
       <c r="D7" t="n">
-        <v>11.22</v>
+        <v>11.38</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.2699966430664</v>
+        <v>102.6999969482422</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.78</v>
+        <v>-1.33</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.70999908447266</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.02</v>
+        <v>-7.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>247.3899993896484</v>
+        <v>241</v>
       </c>
       <c r="D10" t="n">
-        <v>7.18</v>
+        <v>4.41</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>89.02999877929688</v>
+        <v>88.69999694824219</v>
       </c>
       <c r="D11" t="n">
-        <v>7.76</v>
+        <v>7.36</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>183.8699951171875</v>
+        <v>185.7299957275391</v>
       </c>
       <c r="D2" t="n">
-        <v>6.09</v>
+        <v>7.16</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>203.3800048828125</v>
+        <v>205.8000030517578</v>
       </c>
       <c r="D3" t="n">
-        <v>32.94</v>
+        <v>34.52</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.7799987792969</v>
+        <v>100.9400024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>31.69</v>
+        <v>31.9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>65.47000122070312</v>
+        <v>65.23000335693359</v>
       </c>
       <c r="D5" t="n">
-        <v>7.31</v>
+        <v>6.92</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.30000305175781</v>
+        <v>77.70999908447266</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>155.4299926757812</v>
+        <v>156.0700073242188</v>
       </c>
       <c r="D7" t="n">
-        <v>11.38</v>
+        <v>11.84</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>102.6999969482422</v>
+        <v>103.2799987792969</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.33</v>
+        <v>-0.77</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.20000076293945</v>
+        <v>41.18000030517578</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.17</v>
+        <v>-7.21</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>241</v>
+        <v>234.6300048828125</v>
       </c>
       <c r="D10" t="n">
-        <v>4.41</v>
+        <v>1.65</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>88.69999694824219</v>
+        <v>90.34999847412109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>185.7299957275391</v>
+        <v>187.0299987792969</v>
       </c>
       <c r="D2" t="n">
-        <v>7.16</v>
+        <v>7.91</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>205.8000030517578</v>
+        <v>206.7799987792969</v>
       </c>
       <c r="D3" t="n">
-        <v>34.52</v>
+        <v>35.16</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.9400024414062</v>
+        <v>102.5699996948242</v>
       </c>
       <c r="D4" t="n">
-        <v>31.9</v>
+        <v>34.03</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>65.23000335693359</v>
+        <v>65.63999938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>6.92</v>
+        <v>7.59</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>77.70999908447266</v>
+        <v>78.01000213623047</v>
       </c>
       <c r="D6" t="n">
-        <v>0.67</v>
+        <v>1.06</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>156.0700073242188</v>
+        <v>157.7599945068359</v>
       </c>
       <c r="D7" t="n">
-        <v>11.84</v>
+        <v>13.05</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.2799987792969</v>
+        <v>104.1699981689453</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.77</v>
+        <v>0.09</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.18000030517578</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.21</v>
+        <v>-7.17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>234.6300048828125</v>
+        <v>233.5099945068359</v>
       </c>
       <c r="D10" t="n">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.34999847412109</v>
+        <v>91.18000030517578</v>
       </c>
       <c r="D11" t="n">
-        <v>9.359999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>187.0299987792969</v>
+        <v>188.6100006103516</v>
       </c>
       <c r="D2" t="n">
-        <v>7.91</v>
+        <v>8.82</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>206.7799987792969</v>
+        <v>199.4600067138672</v>
       </c>
       <c r="D3" t="n">
-        <v>35.16</v>
+        <v>30.37</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.5699996948242</v>
+        <v>102.9899978637695</v>
       </c>
       <c r="D4" t="n">
-        <v>34.03</v>
+        <v>34.57</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>65.63999938964844</v>
+        <v>66.55000305175781</v>
       </c>
       <c r="D5" t="n">
-        <v>7.59</v>
+        <v>9.08</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>78.01000213623047</v>
+        <v>78.22000122070312</v>
       </c>
       <c r="D6" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>157.7599945068359</v>
+        <v>157.6000061035156</v>
       </c>
       <c r="D7" t="n">
-        <v>13.05</v>
+        <v>12.93</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.1699981689453</v>
+        <v>102.0299987792969</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09</v>
+        <v>-1.97</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.20000076293945</v>
+        <v>41.15000152587891</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.17</v>
+        <v>-7.28</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>233.5099945068359</v>
+        <v>231.8600006103516</v>
       </c>
       <c r="D10" t="n">
-        <v>1.17</v>
+        <v>0.45</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>91.18000030517578</v>
+        <v>90.61000061035156</v>
       </c>
       <c r="D11" t="n">
-        <v>10.36</v>
+        <v>9.67</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>188.6100006103516</v>
+        <v>188.5</v>
       </c>
       <c r="D2" t="n">
-        <v>8.82</v>
+        <v>8.76</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>199.4600067138672</v>
+        <v>195.6000061035156</v>
       </c>
       <c r="D3" t="n">
-        <v>30.37</v>
+        <v>27.85</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.9899978637695</v>
+        <v>102.3499984741211</v>
       </c>
       <c r="D4" t="n">
-        <v>34.57</v>
+        <v>33.74</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.55000305175781</v>
+        <v>65.01000213623047</v>
       </c>
       <c r="D5" t="n">
-        <v>9.08</v>
+        <v>6.56</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>78.22000122070312</v>
+        <v>78.47000122070312</v>
       </c>
       <c r="D6" t="n">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>157.6000061035156</v>
+        <v>156.6999969482422</v>
       </c>
       <c r="D7" t="n">
-        <v>12.93</v>
+        <v>12.29</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>102.0299987792969</v>
+        <v>102.5599975585938</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.97</v>
+        <v>-1.46</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.15000152587891</v>
+        <v>41.22999954223633</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.28</v>
+        <v>-7.1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>231.8600006103516</v>
+        <v>236.6699981689453</v>
       </c>
       <c r="D10" t="n">
-        <v>0.45</v>
+        <v>2.53</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.61000061035156</v>
+        <v>90.48000335693359</v>
       </c>
       <c r="D11" t="n">
-        <v>9.67</v>
+        <v>9.51</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>188.5</v>
+        <v>188.4100036621094</v>
       </c>
       <c r="D2" t="n">
-        <v>8.76</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>195.6000061035156</v>
+        <v>197.6999969482422</v>
       </c>
       <c r="D3" t="n">
-        <v>27.85</v>
+        <v>29.22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.3499984741211</v>
+        <v>102.0800018310547</v>
       </c>
       <c r="D4" t="n">
-        <v>33.74</v>
+        <v>33.39</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>65.01000213623047</v>
+        <v>64.44000244140625</v>
       </c>
       <c r="D5" t="n">
-        <v>6.56</v>
+        <v>5.62</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>78.47000122070312</v>
+        <v>78.52999877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>156.6999969482422</v>
+        <v>156.1300048828125</v>
       </c>
       <c r="D7" t="n">
-        <v>12.29</v>
+        <v>11.88</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>102.5599975585938</v>
+        <v>101.5999984741211</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.46</v>
+        <v>-2.38</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.22999954223633</v>
+        <v>41.11999893188477</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.1</v>
+        <v>-7.35</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>236.6699981689453</v>
+        <v>238.7599945068359</v>
       </c>
       <c r="D10" t="n">
-        <v>2.53</v>
+        <v>3.44</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.48000335693359</v>
+        <v>89.84999847412109</v>
       </c>
       <c r="D11" t="n">
-        <v>9.51</v>
+        <v>8.75</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>188.4100036621094</v>
+        <v>190.6499938964844</v>
       </c>
       <c r="D2" t="n">
-        <v>8.710000000000001</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>197.6999969482422</v>
+        <v>196.5200042724609</v>
       </c>
       <c r="D3" t="n">
-        <v>29.22</v>
+        <v>28.45</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.0800018310547</v>
+        <v>102.879997253418</v>
       </c>
       <c r="D4" t="n">
-        <v>33.39</v>
+        <v>34.43</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>64.44000244140625</v>
+        <v>66.33000183105469</v>
       </c>
       <c r="D5" t="n">
-        <v>5.62</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>78.52999877929688</v>
+        <v>79.69999694824219</v>
       </c>
       <c r="D6" t="n">
-        <v>1.74</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>156.1300048828125</v>
+        <v>158.6799926757812</v>
       </c>
       <c r="D7" t="n">
-        <v>11.88</v>
+        <v>13.71</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>101.5999984741211</v>
+        <v>103.4800033569336</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.38</v>
+        <v>-0.58</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.11999893188477</v>
+        <v>43.06999969482422</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.35</v>
+        <v>-2.95</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>238.7599945068359</v>
+        <v>246.8600006103516</v>
       </c>
       <c r="D10" t="n">
-        <v>3.44</v>
+        <v>6.95</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>89.84999847412109</v>
+        <v>91.16000366210938</v>
       </c>
       <c r="D11" t="n">
-        <v>8.75</v>
+        <v>10.34</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-22</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>190.6499938964844</v>
+        <v>190.3899993896484</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>9.85</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>196.5200042724609</v>
+        <v>194.8600006103516</v>
       </c>
       <c r="D3" t="n">
-        <v>28.45</v>
+        <v>27.37</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.879997253418</v>
+        <v>104.0899963378906</v>
       </c>
       <c r="D4" t="n">
-        <v>34.43</v>
+        <v>36.01</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.33000183105469</v>
+        <v>65.68000030517578</v>
       </c>
       <c r="D5" t="n">
-        <v>8.720000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>79.69999694824219</v>
+        <v>84.98000335693359</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>10.09</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>158.6799926757812</v>
+        <v>165.1600036621094</v>
       </c>
       <c r="D7" t="n">
-        <v>13.71</v>
+        <v>18.35</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.4800033569336</v>
+        <v>105.4899978637695</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.58</v>
+        <v>1.35</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.06999969482422</v>
+        <v>42.15999984741211</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.95</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>246.8600006103516</v>
+        <v>242.1600036621094</v>
       </c>
       <c r="D10" t="n">
-        <v>6.95</v>
+        <v>4.91</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>91.16000366210938</v>
+        <v>90.56999969482422</v>
       </c>
       <c r="D11" t="n">
-        <v>10.34</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>190.3899993896484</v>
+        <v>200.0700073242188</v>
       </c>
       <c r="D2" t="n">
-        <v>9.85</v>
+        <v>15.43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>194.8600006103516</v>
+        <v>193.0299987792969</v>
       </c>
       <c r="D3" t="n">
-        <v>27.37</v>
+        <v>26.17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>104.0899963378906</v>
+        <v>105.0100021362305</v>
       </c>
       <c r="D4" t="n">
-        <v>36.01</v>
+        <v>37.21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>65.68000030517578</v>
+        <v>65.69000244140625</v>
       </c>
       <c r="D5" t="n">
-        <v>7.65</v>
+        <v>7.67</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>84.98000335693359</v>
+        <v>85.12999725341797</v>
       </c>
       <c r="D6" t="n">
-        <v>10.09</v>
+        <v>10.29</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>165.1600036621094</v>
+        <v>164.2200012207031</v>
       </c>
       <c r="D7" t="n">
-        <v>18.35</v>
+        <v>17.68</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>105.4899978637695</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.15999984741211</v>
+        <v>43.15999984741211</v>
       </c>
       <c r="D9" t="n">
-        <v>-5</v>
+        <v>-2.75</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>242.1600036621094</v>
+        <v>241.1999969482422</v>
       </c>
       <c r="D10" t="n">
-        <v>4.91</v>
+        <v>4.5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.56999969482422</v>
+        <v>90.34999847412109</v>
       </c>
       <c r="D11" t="n">
-        <v>9.619999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>200.0700073242188</v>
+        <v>200.7700042724609</v>
       </c>
       <c r="D2" t="n">
-        <v>15.43</v>
+        <v>15.84</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>193.0299987792969</v>
+        <v>194.7799987792969</v>
       </c>
       <c r="D3" t="n">
-        <v>26.17</v>
+        <v>27.32</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>105.0100021362305</v>
+        <v>100.2699966430664</v>
       </c>
       <c r="D4" t="n">
-        <v>37.21</v>
+        <v>31.02</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>65.69000244140625</v>
+        <v>65.77999877929688</v>
       </c>
       <c r="D5" t="n">
-        <v>7.67</v>
+        <v>7.82</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>85.12999725341797</v>
+        <v>85.81999969482422</v>
       </c>
       <c r="D6" t="n">
-        <v>10.29</v>
+        <v>11.18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>164.2200012207031</v>
+        <v>164.0299987792969</v>
       </c>
       <c r="D7" t="n">
-        <v>17.68</v>
+        <v>17.54</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106</v>
+        <v>104.9499969482422</v>
       </c>
       <c r="D8" t="n">
-        <v>1.84</v>
+        <v>0.84</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.15999984741211</v>
+        <v>43.33000183105469</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.75</v>
+        <v>-2.37</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>241.1999969482422</v>
+        <v>245.1300048828125</v>
       </c>
       <c r="D10" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.34999847412109</v>
+        <v>90.52999877929688</v>
       </c>
       <c r="D11" t="n">
-        <v>9.359999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>200.7700042724609</v>
+        <v>199.5800018310547</v>
       </c>
       <c r="D2" t="n">
-        <v>15.84</v>
+        <v>15.15</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>194.7799987792969</v>
+        <v>193.9799957275391</v>
       </c>
       <c r="D3" t="n">
-        <v>27.32</v>
+        <v>26.79</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>100.2699966430664</v>
+        <v>103.120002746582</v>
       </c>
       <c r="D4" t="n">
-        <v>31.02</v>
+        <v>34.74</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>65.77999877929688</v>
+        <v>66.44999694824219</v>
       </c>
       <c r="D5" t="n">
-        <v>7.82</v>
+        <v>8.92</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>85.81999969482422</v>
+        <v>85.76999664306641</v>
       </c>
       <c r="D6" t="n">
-        <v>11.18</v>
+        <v>11.12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>164.0299987792969</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="D7" t="n">
-        <v>17.54</v>
+        <v>19.09</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.9499969482422</v>
+        <v>104.6100006103516</v>
       </c>
       <c r="D8" t="n">
-        <v>0.84</v>
+        <v>0.51</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.33000183105469</v>
+        <v>43.4900016784668</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.37</v>
+        <v>-2.01</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>245.1300048828125</v>
+        <v>243.9100036621094</v>
       </c>
       <c r="D10" t="n">
-        <v>6.2</v>
+        <v>5.67</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.52999877929688</v>
+        <v>90.26999664306641</v>
       </c>
       <c r="D11" t="n">
-        <v>9.57</v>
+        <v>9.26</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>199.5800018310547</v>
+        <v>199.5299987792969</v>
       </c>
       <c r="D2" t="n">
-        <v>15.15</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>193.9799957275391</v>
+        <v>191.7100067138672</v>
       </c>
       <c r="D3" t="n">
-        <v>26.79</v>
+        <v>25.31</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>103.120002746582</v>
+        <v>102.75</v>
       </c>
       <c r="D4" t="n">
-        <v>34.74</v>
+        <v>34.26</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.44999694824219</v>
+        <v>66.55999755859375</v>
       </c>
       <c r="D5" t="n">
-        <v>8.92</v>
+        <v>9.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>85.76999664306641</v>
+        <v>85.62000274658203</v>
       </c>
       <c r="D6" t="n">
-        <v>11.12</v>
+        <v>10.92</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>166.1900024414062</v>
+        <v>167.7400054931641</v>
       </c>
       <c r="D7" t="n">
-        <v>19.09</v>
+        <v>20.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.6100006103516</v>
+        <v>105.3099975585938</v>
       </c>
       <c r="D8" t="n">
-        <v>0.51</v>
+        <v>1.18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.4900016784668</v>
+        <v>44.11000061035156</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.01</v>
+        <v>-0.61</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>243.9100036621094</v>
+        <v>244.8800048828125</v>
       </c>
       <c r="D10" t="n">
-        <v>5.67</v>
+        <v>6.09</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.26999664306641</v>
+        <v>91.44000244140625</v>
       </c>
       <c r="D11" t="n">
-        <v>9.26</v>
+        <v>10.68</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>199.5299987792969</v>
+        <v>200.9700012207031</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>15.95</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>191.7100067138672</v>
+        <v>193.4900054931641</v>
       </c>
       <c r="D3" t="n">
-        <v>25.31</v>
+        <v>26.47</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>102.75</v>
+        <v>103.3300018310547</v>
       </c>
       <c r="D4" t="n">
-        <v>34.26</v>
+        <v>35.02</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.55999755859375</v>
+        <v>66.68000030517578</v>
       </c>
       <c r="D5" t="n">
-        <v>9.1</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>85.62000274658203</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="D6" t="n">
-        <v>10.92</v>
+        <v>12.36</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>167.7400054931641</v>
+        <v>170.4900054931641</v>
       </c>
       <c r="D7" t="n">
-        <v>20.2</v>
+        <v>22.17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>105.3099975585938</v>
+        <v>105.7799987792969</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.11000061035156</v>
+        <v>43.08000183105469</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.61</v>
+        <v>-2.93</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>244.8800048828125</v>
+        <v>244.7599945068359</v>
       </c>
       <c r="D10" t="n">
-        <v>6.09</v>
+        <v>6.04</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>91.44000244140625</v>
+        <v>90.16000366210938</v>
       </c>
       <c r="D11" t="n">
-        <v>10.68</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>200.9700012207031</v>
+        <v>201.7200012207031</v>
       </c>
       <c r="D2" t="n">
-        <v>15.95</v>
+        <v>16.39</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>193.4900054931641</v>
+        <v>200.7799987792969</v>
       </c>
       <c r="D3" t="n">
-        <v>26.47</v>
+        <v>31.24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.68000030517578</v>
+        <v>66.58000183105469</v>
       </c>
       <c r="D5" t="n">
-        <v>9.289999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>86.73000335693359</v>
+        <v>87.84999847412109</v>
       </c>
       <c r="D6" t="n">
-        <v>12.36</v>
+        <v>13.81</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>170.4900054931641</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="D7" t="n">
-        <v>22.17</v>
+        <v>24.06</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>105.7799987792969</v>
+        <v>106.1399993896484</v>
       </c>
       <c r="D8" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.08000183105469</v>
+        <v>43.38999938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.93</v>
+        <v>-2.23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>244.7599945068359</v>
+        <v>247.1799926757812</v>
       </c>
       <c r="D10" t="n">
-        <v>6.04</v>
+        <v>7.09</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>90.16000366210938</v>
+        <v>92.05999755859375</v>
       </c>
       <c r="D11" t="n">
-        <v>9.130000000000001</v>
+        <v>11.43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>201.7200012207031</v>
+        <v>200.2200012207031</v>
       </c>
       <c r="D2" t="n">
-        <v>16.39</v>
+        <v>15.52</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>200.7799987792969</v>
+        <v>203.3399963378906</v>
       </c>
       <c r="D3" t="n">
-        <v>31.24</v>
+        <v>32.91</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>103.3300018310547</v>
+        <v>103.1600036621094</v>
       </c>
       <c r="D4" t="n">
-        <v>35.02</v>
+        <v>34.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.58000183105469</v>
+        <v>66.87000274658203</v>
       </c>
       <c r="D5" t="n">
-        <v>9.130000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>87.84999847412109</v>
+        <v>87.86000061035156</v>
       </c>
       <c r="D6" t="n">
-        <v>13.81</v>
+        <v>13.82</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>173.1300048828125</v>
+        <v>174.7200012207031</v>
       </c>
       <c r="D7" t="n">
-        <v>24.06</v>
+        <v>25.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106.1399993896484</v>
+        <v>106.1699981689453</v>
       </c>
       <c r="D8" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.38999938964844</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.23</v>
+        <v>-5.23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>247.1799926757812</v>
+        <v>241.9299926757812</v>
       </c>
       <c r="D10" t="n">
-        <v>7.09</v>
+        <v>4.81</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.05999755859375</v>
+        <v>92.16000366210938</v>
       </c>
       <c r="D11" t="n">
-        <v>11.43</v>
+        <v>11.55</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>200.2200012207031</v>
+        <v>199.7700042724609</v>
       </c>
       <c r="D2" t="n">
-        <v>15.52</v>
+        <v>15.26</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>203.3399963378906</v>
+        <v>201.8999938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>32.91</v>
+        <v>31.97</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>103.1600036621094</v>
+        <v>103.2300033569336</v>
       </c>
       <c r="D4" t="n">
-        <v>34.8</v>
+        <v>34.89</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.87000274658203</v>
+        <v>66.75</v>
       </c>
       <c r="D5" t="n">
-        <v>9.6</v>
+        <v>9.41</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>87.86000061035156</v>
+        <v>88.30000305175781</v>
       </c>
       <c r="D6" t="n">
-        <v>13.82</v>
+        <v>14.39</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>174.7200012207031</v>
+        <v>175.3800048828125</v>
       </c>
       <c r="D7" t="n">
-        <v>25.2</v>
+        <v>25.68</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106.1699981689453</v>
+        <v>105.1100006103516</v>
       </c>
       <c r="D8" t="n">
-        <v>2.01</v>
+        <v>0.99</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.06000137329102</v>
+        <v>41.86000061035156</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.23</v>
+        <v>-5.68</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>241.9299926757812</v>
+        <v>239.6300048828125</v>
       </c>
       <c r="D10" t="n">
-        <v>4.81</v>
+        <v>3.82</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.16000366210938</v>
+        <v>92.01000213623047</v>
       </c>
       <c r="D11" t="n">
-        <v>11.55</v>
+        <v>11.37</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>199.7700042724609</v>
+        <v>199.6999969482422</v>
       </c>
       <c r="D2" t="n">
-        <v>15.26</v>
+        <v>15.22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>201.8999938964844</v>
+        <v>198.8300018310547</v>
       </c>
       <c r="D3" t="n">
-        <v>31.97</v>
+        <v>29.96</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>103.2300033569336</v>
+        <v>104.4400024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>34.89</v>
+        <v>36.47</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.75</v>
+        <v>66.98000335693359</v>
       </c>
       <c r="D5" t="n">
-        <v>9.41</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>88.30000305175781</v>
+        <v>88.34999847412109</v>
       </c>
       <c r="D6" t="n">
-        <v>14.39</v>
+        <v>14.46</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>175.3800048828125</v>
+        <v>175.3000030517578</v>
       </c>
       <c r="D7" t="n">
-        <v>25.68</v>
+        <v>25.62</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>105.1100006103516</v>
+        <v>103.6100006103516</v>
       </c>
       <c r="D8" t="n">
-        <v>0.99</v>
+        <v>-0.45</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>41.86000061035156</v>
+        <v>42.81999969482422</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.68</v>
+        <v>-3.52</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>239.6300048828125</v>
+        <v>243.3399963378906</v>
       </c>
       <c r="D10" t="n">
-        <v>3.82</v>
+        <v>5.42</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.01000213623047</v>
+        <v>91.76000213623047</v>
       </c>
       <c r="D11" t="n">
-        <v>11.37</v>
+        <v>11.06</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>199.6999969482422</v>
+        <v>199.9400024414062</v>
       </c>
       <c r="D2" t="n">
-        <v>15.22</v>
+        <v>15.36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>198.8300018310547</v>
+        <v>197.2200012207031</v>
       </c>
       <c r="D3" t="n">
-        <v>29.96</v>
+        <v>28.91</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>104.4400024414062</v>
+        <v>105.2399978637695</v>
       </c>
       <c r="D4" t="n">
-        <v>36.47</v>
+        <v>37.51</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.98000335693359</v>
+        <v>67.34999847412109</v>
       </c>
       <c r="D5" t="n">
-        <v>9.789999999999999</v>
+        <v>10.39</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>88.34999847412109</v>
+        <v>88.56999969482422</v>
       </c>
       <c r="D6" t="n">
-        <v>14.46</v>
+        <v>14.74</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>175.3000030517578</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="D7" t="n">
-        <v>25.62</v>
+        <v>25.48</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.6100006103516</v>
+        <v>103.2600021362305</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.45</v>
+        <v>-0.79</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.81999969482422</v>
+        <v>43.2400016784668</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.52</v>
+        <v>-2.57</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>243.3399963378906</v>
+        <v>236.3000030517578</v>
       </c>
       <c r="D10" t="n">
-        <v>5.42</v>
+        <v>2.37</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>91.76000213623047</v>
+        <v>92.98999786376953</v>
       </c>
       <c r="D11" t="n">
-        <v>11.06</v>
+        <v>12.55</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>199.9400024414062</v>
+        <v>200.8200073242188</v>
       </c>
       <c r="D2" t="n">
-        <v>15.36</v>
+        <v>15.87</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>197.2200012207031</v>
+        <v>200.6499938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>28.91</v>
+        <v>31.15</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>105.2399978637695</v>
+        <v>106.2399978637695</v>
       </c>
       <c r="D4" t="n">
-        <v>37.51</v>
+        <v>38.82</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>67.34999847412109</v>
+        <v>67.5</v>
       </c>
       <c r="D5" t="n">
-        <v>10.39</v>
+        <v>10.64</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>88.56999969482422</v>
+        <v>88.87000274658203</v>
       </c>
       <c r="D6" t="n">
-        <v>14.74</v>
+        <v>15.13</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>175.1100006103516</v>
+        <v>175.3600006103516</v>
       </c>
       <c r="D7" t="n">
-        <v>25.48</v>
+        <v>25.66</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.2600021362305</v>
+        <v>104.7099990844727</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.79</v>
+        <v>0.61</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.2400016784668</v>
+        <v>43.18000030517578</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.57</v>
+        <v>-2.7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>236.3000030517578</v>
+        <v>239.9499969482422</v>
       </c>
       <c r="D10" t="n">
-        <v>2.37</v>
+        <v>3.96</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>92.98999786376953</v>
+        <v>95.08000183105469</v>
       </c>
       <c r="D11" t="n">
-        <v>12.55</v>
+        <v>15.08</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>200.8200073242188</v>
+        <v>199.6300048828125</v>
       </c>
       <c r="D2" t="n">
-        <v>15.87</v>
+        <v>15.18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>200.6499938964844</v>
+        <v>198.4900054931641</v>
       </c>
       <c r="D3" t="n">
-        <v>31.15</v>
+        <v>29.74</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>106.2399978637695</v>
+        <v>106.3199996948242</v>
       </c>
       <c r="D4" t="n">
-        <v>38.82</v>
+        <v>38.93</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>67.5</v>
+        <v>67.98000335693359</v>
       </c>
       <c r="D5" t="n">
-        <v>10.64</v>
+        <v>11.42</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>88.87000274658203</v>
+        <v>87.73999786376953</v>
       </c>
       <c r="D6" t="n">
-        <v>15.13</v>
+        <v>13.67</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>175.3600006103516</v>
+        <v>174.9299926757812</v>
       </c>
       <c r="D7" t="n">
-        <v>25.66</v>
+        <v>25.35</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.7099990844727</v>
+        <v>103.9800033569336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.61</v>
+        <v>-0.1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.18000030517578</v>
+        <v>43.20999908447266</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.7</v>
+        <v>-2.64</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>239.9499969482422</v>
+        <v>239.5</v>
       </c>
       <c r="D10" t="n">
-        <v>3.96</v>
+        <v>3.76</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>95.08000183105469</v>
+        <v>93.80000305175781</v>
       </c>
       <c r="D11" t="n">
-        <v>15.08</v>
+        <v>13.53</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>199.6300048828125</v>
+        <v>200.25</v>
       </c>
       <c r="D2" t="n">
-        <v>15.18</v>
+        <v>15.54</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>198.4900054931641</v>
+        <v>203.6699981689453</v>
       </c>
       <c r="D3" t="n">
-        <v>29.74</v>
+        <v>33.13</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>106.3199996948242</v>
+        <v>106.9599990844727</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93</v>
+        <v>39.76</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>67.98000335693359</v>
+        <v>67.58000183105469</v>
       </c>
       <c r="D5" t="n">
-        <v>11.42</v>
+        <v>10.77</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>87.73999786376953</v>
+        <v>88.16000366210938</v>
       </c>
       <c r="D6" t="n">
-        <v>13.67</v>
+        <v>14.21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>174.9299926757812</v>
+        <v>176.0500030517578</v>
       </c>
       <c r="D7" t="n">
-        <v>25.35</v>
+        <v>26.16</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.9800033569336</v>
+        <v>104.5699996948242</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1</v>
+        <v>0.47</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.20999908447266</v>
+        <v>44.15000152587891</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.64</v>
+        <v>-0.52</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>239.5</v>
+        <v>235.7899932861328</v>
       </c>
       <c r="D10" t="n">
-        <v>3.76</v>
+        <v>2.15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>93.80000305175781</v>
+        <v>95.56999969482422</v>
       </c>
       <c r="D11" t="n">
-        <v>13.53</v>
+        <v>15.67</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>200.25</v>
+        <v>201.5200042724609</v>
       </c>
       <c r="D2" t="n">
-        <v>15.54</v>
+        <v>16.27</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>203.6699981689453</v>
+        <v>203.5700073242188</v>
       </c>
       <c r="D3" t="n">
-        <v>33.13</v>
+        <v>33.06</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>106.9599990844727</v>
+        <v>107.9800033569336</v>
       </c>
       <c r="D4" t="n">
-        <v>39.76</v>
+        <v>41.09</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>67.58000183105469</v>
+        <v>67.61000061035156</v>
       </c>
       <c r="D5" t="n">
-        <v>10.77</v>
+        <v>10.82</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>88.16000366210938</v>
+        <v>88.98999786376953</v>
       </c>
       <c r="D6" t="n">
-        <v>14.21</v>
+        <v>15.29</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>176.0500030517578</v>
+        <v>178.6199951171875</v>
       </c>
       <c r="D7" t="n">
-        <v>26.16</v>
+        <v>28</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.5699996948242</v>
+        <v>103.6900024414062</v>
       </c>
       <c r="D8" t="n">
-        <v>0.47</v>
+        <v>-0.37</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.15000152587891</v>
+        <v>45.13999938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.52</v>
+        <v>1.71</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>235.7899932861328</v>
+        <v>232.8999938964844</v>
       </c>
       <c r="D10" t="n">
-        <v>2.15</v>
+        <v>0.9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>95.56999969482422</v>
+        <v>95.48000335693359</v>
       </c>
       <c r="D11" t="n">
-        <v>15.67</v>
+        <v>15.57</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>201.5200042724609</v>
+        <v>201.6399993896484</v>
       </c>
       <c r="D2" t="n">
-        <v>16.27</v>
+        <v>16.34</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>203.5700073242188</v>
+        <v>209.7400054931641</v>
       </c>
       <c r="D3" t="n">
-        <v>33.06</v>
+        <v>37.09</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>107.9800033569336</v>
+        <v>108.1900024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>41.09</v>
+        <v>41.37</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>67.61000061035156</v>
+        <v>67.77999877929688</v>
       </c>
       <c r="D5" t="n">
-        <v>10.82</v>
+        <v>11.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>88.98999786376953</v>
+        <v>89.18000030517578</v>
       </c>
       <c r="D6" t="n">
-        <v>15.29</v>
+        <v>15.53</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>178.6199951171875</v>
+        <v>178.5200042724609</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>27.93</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.6900024414062</v>
+        <v>104.3300018310547</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.37</v>
+        <v>0.24</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45.13999938964844</v>
+        <v>44.88999938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>1.71</v>
+        <v>1.15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>232.8999938964844</v>
+        <v>221.6999969482422</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9</v>
+        <v>-3.95</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>95.48000335693359</v>
+        <v>97.55999755859375</v>
       </c>
       <c r="D11" t="n">
-        <v>15.57</v>
+        <v>18.08</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>201.6399993896484</v>
+        <v>203.1399993896484</v>
       </c>
       <c r="D2" t="n">
-        <v>16.34</v>
+        <v>17.21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>209.7400054931641</v>
+        <v>211.6000061035156</v>
       </c>
       <c r="D3" t="n">
-        <v>37.09</v>
+        <v>38.31</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>108.1900024414062</v>
+        <v>108.3899993896484</v>
       </c>
       <c r="D4" t="n">
-        <v>41.37</v>
+        <v>41.63</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>67.77999877929688</v>
+        <v>68.36000061035156</v>
       </c>
       <c r="D5" t="n">
-        <v>11.1</v>
+        <v>12.05</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.18000030517578</v>
+        <v>89.59999847412109</v>
       </c>
       <c r="D6" t="n">
-        <v>15.53</v>
+        <v>16.08</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>178.5200042724609</v>
+        <v>179.8699951171875</v>
       </c>
       <c r="D7" t="n">
-        <v>27.93</v>
+        <v>28.89</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.3300018310547</v>
+        <v>104.4199981689453</v>
       </c>
       <c r="D8" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.88999938964844</v>
+        <v>43.58000183105469</v>
       </c>
       <c r="D9" t="n">
-        <v>1.15</v>
+        <v>-1.8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>221.6999969482422</v>
+        <v>224</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.95</v>
+        <v>-2.95</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>97.55999755859375</v>
+        <v>99.01999664306641</v>
       </c>
       <c r="D11" t="n">
-        <v>18.08</v>
+        <v>19.85</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>203.1399993896484</v>
+        <v>205.5</v>
       </c>
       <c r="D2" t="n">
-        <v>17.21</v>
+        <v>18.57</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>211.6000061035156</v>
+        <v>217.2700042724609</v>
       </c>
       <c r="D3" t="n">
-        <v>38.31</v>
+        <v>42.02</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>108.3899993896484</v>
+        <v>109.5599975585938</v>
       </c>
       <c r="D4" t="n">
-        <v>41.63</v>
+        <v>43.16</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>68.36000061035156</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>12.05</v>
+        <v>11.46</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.59999847412109</v>
+        <v>89.05999755859375</v>
       </c>
       <c r="D6" t="n">
-        <v>16.08</v>
+        <v>15.38</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>179.8699951171875</v>
+        <v>179.1399993896484</v>
       </c>
       <c r="D7" t="n">
-        <v>28.89</v>
+        <v>28.37</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.4199981689453</v>
+        <v>103.129997253418</v>
       </c>
       <c r="D8" t="n">
-        <v>0.33</v>
+        <v>-0.91</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.58000183105469</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.8</v>
+        <v>0.05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>224</v>
+        <v>225.4299926757812</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.95</v>
+        <v>-2.34</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>99.01999664306641</v>
+        <v>100.5100021362305</v>
       </c>
       <c r="D11" t="n">
-        <v>19.85</v>
+        <v>21.65</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>205.5</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="D2" t="n">
-        <v>18.57</v>
+        <v>18.3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>217.2700042724609</v>
+        <v>207.4700012207031</v>
       </c>
       <c r="D3" t="n">
-        <v>42.02</v>
+        <v>35.61</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>109.5599975585938</v>
+        <v>108.9499969482422</v>
       </c>
       <c r="D4" t="n">
-        <v>43.16</v>
+        <v>42.36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>68</v>
+        <v>68.63999938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>11.46</v>
+        <v>12.51</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.05999755859375</v>
+        <v>89.11000061035156</v>
       </c>
       <c r="D6" t="n">
-        <v>15.38</v>
+        <v>15.44</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>179.1399993896484</v>
+        <v>180.7700042724609</v>
       </c>
       <c r="D7" t="n">
-        <v>28.37</v>
+        <v>29.54</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.129997253418</v>
+        <v>102.629997253418</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.91</v>
+        <v>-1.39</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.40000152587891</v>
+        <v>44.43999862670898</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>225.4299926757812</v>
+        <v>222.5200042724609</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.34</v>
+        <v>-3.6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>100.5100021362305</v>
+        <v>99.06999969482422</v>
       </c>
       <c r="D11" t="n">
-        <v>21.65</v>
+        <v>19.91</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>205.0399932861328</v>
+        <v>204.7700042724609</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3</v>
+        <v>18.15</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>207.4700012207031</v>
+        <v>206.8399963378906</v>
       </c>
       <c r="D3" t="n">
-        <v>35.61</v>
+        <v>35.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>108.9499969482422</v>
+        <v>108.5899963378906</v>
       </c>
       <c r="D4" t="n">
-        <v>42.36</v>
+        <v>41.89</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>68.63999938964844</v>
+        <v>69.48000335693359</v>
       </c>
       <c r="D5" t="n">
-        <v>12.51</v>
+        <v>13.88</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.11000061035156</v>
+        <v>89.08999633789062</v>
       </c>
       <c r="D6" t="n">
-        <v>15.44</v>
+        <v>15.42</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>180.7700042724609</v>
+        <v>178.4499969482422</v>
       </c>
       <c r="D7" t="n">
-        <v>29.54</v>
+        <v>27.88</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>102.629997253418</v>
+        <v>102.9300003051758</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.39</v>
+        <v>-1.1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.43999862670898</v>
+        <v>45.54999923706055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14</v>
+        <v>2.64</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>222.5200042724609</v>
+        <v>219.2899932861328</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.6</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>99.06999969482422</v>
+        <v>96.87000274658203</v>
       </c>
       <c r="D11" t="n">
-        <v>19.91</v>
+        <v>17.25</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>204.7700042724609</v>
+        <v>203.8500061035156</v>
       </c>
       <c r="D2" t="n">
-        <v>18.15</v>
+        <v>17.61</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>206.8399963378906</v>
+        <v>199.9600067138672</v>
       </c>
       <c r="D3" t="n">
-        <v>35.2</v>
+        <v>30.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>108.5899963378906</v>
+        <v>109.9599990844727</v>
       </c>
       <c r="D4" t="n">
-        <v>41.89</v>
+        <v>43.68</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>69.48000335693359</v>
+        <v>69.11000061035156</v>
       </c>
       <c r="D5" t="n">
-        <v>13.88</v>
+        <v>13.28</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.08999633789062</v>
+        <v>89.76000213623047</v>
       </c>
       <c r="D6" t="n">
-        <v>15.42</v>
+        <v>16.28</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>178.4499969482422</v>
+        <v>180.4700012207031</v>
       </c>
       <c r="D7" t="n">
-        <v>27.88</v>
+        <v>29.32</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>102.9300003051758</v>
+        <v>103.5</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.1</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45.54999923706055</v>
+        <v>45.27000045776367</v>
       </c>
       <c r="D9" t="n">
-        <v>2.64</v>
+        <v>2.01</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>219.2899932861328</v>
+        <v>220.2899932861328</v>
       </c>
       <c r="D10" t="n">
-        <v>-5</v>
+        <v>-4.56</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>96.87000274658203</v>
+        <v>95.41000366210938</v>
       </c>
       <c r="D11" t="n">
-        <v>17.25</v>
+        <v>15.48</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>203.8500061035156</v>
+        <v>203.6300048828125</v>
       </c>
       <c r="D2" t="n">
-        <v>17.61</v>
+        <v>17.49</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>199.9600067138672</v>
+        <v>195.3999938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>30.7</v>
+        <v>27.72</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>109.9599990844727</v>
+        <v>110.3499984741211</v>
       </c>
       <c r="D4" t="n">
-        <v>43.68</v>
+        <v>44.19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>69.11000061035156</v>
+        <v>69.08999633789062</v>
       </c>
       <c r="D5" t="n">
-        <v>13.28</v>
+        <v>13.24</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.76000213623047</v>
+        <v>89.75</v>
       </c>
       <c r="D6" t="n">
-        <v>16.28</v>
+        <v>16.27</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>180.4700012207031</v>
+        <v>182</v>
       </c>
       <c r="D7" t="n">
-        <v>29.32</v>
+        <v>30.42</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>103.5</v>
+        <v>102.4700012207031</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.55</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45.27000045776367</v>
+        <v>45.56999969482422</v>
       </c>
       <c r="D9" t="n">
-        <v>2.01</v>
+        <v>2.68</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>220.2899932861328</v>
+        <v>218.7899932861328</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.56</v>
+        <v>-5.21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>95.41000366210938</v>
+        <v>95.33999633789062</v>
       </c>
       <c r="D11" t="n">
-        <v>15.48</v>
+        <v>15.4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>203.6300048828125</v>
+        <v>204.6999969482422</v>
       </c>
       <c r="D2" t="n">
-        <v>17.49</v>
+        <v>18.11</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>195.3999938964844</v>
+        <v>207.4600067138672</v>
       </c>
       <c r="D3" t="n">
-        <v>27.72</v>
+        <v>35.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>110.3499984741211</v>
+        <v>111.1100006103516</v>
       </c>
       <c r="D4" t="n">
-        <v>44.19</v>
+        <v>45.18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>69.08999633789062</v>
+        <v>69.23000335693359</v>
       </c>
       <c r="D5" t="n">
-        <v>13.24</v>
+        <v>13.47</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.75</v>
+        <v>90.19999694824219</v>
       </c>
       <c r="D6" t="n">
-        <v>16.27</v>
+        <v>16.85</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>182</v>
+        <v>180.7899932861328</v>
       </c>
       <c r="D7" t="n">
-        <v>30.42</v>
+        <v>29.55</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>102.4700012207031</v>
+        <v>102.2799987792969</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.55</v>
+        <v>-1.73</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45.56999969482422</v>
+        <v>45.02999877929688</v>
       </c>
       <c r="D9" t="n">
-        <v>2.68</v>
+        <v>1.46</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>218.7899932861328</v>
+        <v>217.5200042724609</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.21</v>
+        <v>-5.76</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>95.33999633789062</v>
+        <v>96.29000091552734</v>
       </c>
       <c r="D11" t="n">
-        <v>15.4</v>
+        <v>16.55</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>204.6999969482422</v>
+        <v>205.25</v>
       </c>
       <c r="D2" t="n">
-        <v>18.11</v>
+        <v>18.42</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>207.4600067138672</v>
+        <v>208.6199951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>35.6</v>
+        <v>36.36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>111.1100006103516</v>
+        <v>112.129997253418</v>
       </c>
       <c r="D4" t="n">
-        <v>45.18</v>
+        <v>46.52</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>69.23000335693359</v>
+        <v>69.16000366210938</v>
       </c>
       <c r="D5" t="n">
-        <v>13.47</v>
+        <v>13.36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>90.19999694824219</v>
+        <v>90.06999969482422</v>
       </c>
       <c r="D6" t="n">
-        <v>16.85</v>
+        <v>16.69</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>180.7899932861328</v>
+        <v>181.8200073242188</v>
       </c>
       <c r="D7" t="n">
-        <v>29.55</v>
+        <v>30.29</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>102.2799987792969</v>
+        <v>104.3199996948242</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.73</v>
+        <v>0.23</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45.02999877929688</v>
+        <v>44.2599983215332</v>
       </c>
       <c r="D9" t="n">
-        <v>1.46</v>
+        <v>-0.27</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>217.5200042724609</v>
+        <v>212.7799987792969</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.76</v>
+        <v>-7.82</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>96.29000091552734</v>
+        <v>94.66999816894531</v>
       </c>
       <c r="D11" t="n">
-        <v>16.55</v>
+        <v>14.58</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>205.25</v>
+        <v>204.4400024414062</v>
       </c>
       <c r="D2" t="n">
-        <v>18.42</v>
+        <v>17.96</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>208.6199951171875</v>
+        <v>211.2400054931641</v>
       </c>
       <c r="D3" t="n">
-        <v>36.36</v>
+        <v>38.07</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>112.129997253418</v>
+        <v>111.1399993896484</v>
       </c>
       <c r="D4" t="n">
-        <v>46.52</v>
+        <v>45.22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>69.16000366210938</v>
+        <v>69.38999938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>13.36</v>
+        <v>13.74</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>90.06999969482422</v>
+        <v>90.87000274658203</v>
       </c>
       <c r="D6" t="n">
-        <v>16.69</v>
+        <v>17.72</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>181.8200073242188</v>
+        <v>181.8600006103516</v>
       </c>
       <c r="D7" t="n">
-        <v>30.29</v>
+        <v>30.32</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.3199996948242</v>
+        <v>105.9000015258789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23</v>
+        <v>1.75</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.2599983215332</v>
+        <v>43.91999816894531</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.27</v>
+        <v>-1.04</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>212.7799987792969</v>
+        <v>211.5500030517578</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.82</v>
+        <v>-8.35</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>94.66999816894531</v>
+        <v>95.16999816894531</v>
       </c>
       <c r="D11" t="n">
-        <v>14.58</v>
+        <v>15.19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>204.4400024414062</v>
+        <v>205.0599975585938</v>
       </c>
       <c r="D2" t="n">
-        <v>17.96</v>
+        <v>18.31</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>211.2400054931641</v>
+        <v>224.8899993896484</v>
       </c>
       <c r="D3" t="n">
-        <v>38.07</v>
+        <v>47</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>111.1399993896484</v>
+        <v>113.2600021362305</v>
       </c>
       <c r="D4" t="n">
-        <v>45.22</v>
+        <v>47.99</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>69.38999938964844</v>
+        <v>69.87999725341797</v>
       </c>
       <c r="D5" t="n">
-        <v>13.74</v>
+        <v>14.54</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>90.87000274658203</v>
+        <v>91.02999877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>17.72</v>
+        <v>17.93</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>181.8600006103516</v>
+        <v>180.0200042724609</v>
       </c>
       <c r="D7" t="n">
-        <v>30.32</v>
+        <v>29</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>105.9000015258789</v>
+        <v>108.2699966430664</v>
       </c>
       <c r="D8" t="n">
-        <v>1.75</v>
+        <v>4.03</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.91999816894531</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.04</v>
+        <v>0.05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>211.5500030517578</v>
+        <v>213.4799957275391</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.35</v>
+        <v>-7.51</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>95.16999816894531</v>
+        <v>95.86000061035156</v>
       </c>
       <c r="D11" t="n">
-        <v>15.19</v>
+        <v>16.03</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>205.0599975585938</v>
+        <v>205.0299987792969</v>
       </c>
       <c r="D2" t="n">
-        <v>18.31</v>
+        <v>18.3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>224.8899993896484</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>50.02</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>113.2600021362305</v>
+        <v>113.3000030517578</v>
       </c>
       <c r="D4" t="n">
-        <v>47.99</v>
+        <v>48.05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>69.87999725341797</v>
+        <v>69.43000030517578</v>
       </c>
       <c r="D5" t="n">
-        <v>14.54</v>
+        <v>13.8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>91.02999877929688</v>
+        <v>91.15000152587891</v>
       </c>
       <c r="D6" t="n">
-        <v>17.93</v>
+        <v>18.09</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>180.0200042724609</v>
+        <v>180.4799957275391</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>29.33</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>108.2699966430664</v>
+        <v>107.9400024414062</v>
       </c>
       <c r="D8" t="n">
-        <v>4.03</v>
+        <v>3.71</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44.40000152587891</v>
+        <v>45.27999877929688</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05</v>
+        <v>2.03</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>213.4799957275391</v>
+        <v>212.2200012207031</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.51</v>
+        <v>-8.06</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>95.86000061035156</v>
+        <v>94.94999694824219</v>
       </c>
       <c r="D11" t="n">
-        <v>16.03</v>
+        <v>14.92</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>205.0299987792969</v>
+        <v>203.6100006103516</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3</v>
+        <v>17.48</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>229.5200042724609</v>
+        <v>225.1000061035156</v>
       </c>
       <c r="D3" t="n">
-        <v>50.02</v>
+        <v>47.13</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>113.3000030517578</v>
+        <v>112.9400024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>48.05</v>
+        <v>47.58</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>69.43000030517578</v>
+        <v>69.01000213623047</v>
       </c>
       <c r="D5" t="n">
-        <v>13.8</v>
+        <v>13.11</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>91.15000152587891</v>
+        <v>89.61000061035156</v>
       </c>
       <c r="D6" t="n">
-        <v>18.09</v>
+        <v>16.09</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>180.4799957275391</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="D7" t="n">
-        <v>29.33</v>
+        <v>28.72</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>107.9400024414062</v>
+        <v>108.4800033569336</v>
       </c>
       <c r="D8" t="n">
-        <v>3.71</v>
+        <v>4.23</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45.27999877929688</v>
+        <v>45.72000122070312</v>
       </c>
       <c r="D9" t="n">
-        <v>2.03</v>
+        <v>3.02</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>212.2200012207031</v>
+        <v>211.3500061035156</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.06</v>
+        <v>-8.44</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>94.94999694824219</v>
+        <v>94.48999786376953</v>
       </c>
       <c r="D11" t="n">
-        <v>14.92</v>
+        <v>14.37</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>203.6100006103516</v>
+        <v>202.5099945068359</v>
       </c>
       <c r="D2" t="n">
-        <v>17.48</v>
+        <v>16.84</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>225.1000061035156</v>
+        <v>232.4199981689453</v>
       </c>
       <c r="D3" t="n">
-        <v>47.13</v>
+        <v>51.92</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>112.9400024414062</v>
+        <v>112.3399963378906</v>
       </c>
       <c r="D4" t="n">
-        <v>47.58</v>
+        <v>46.79</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>69.01000213623047</v>
+        <v>68.45999908447266</v>
       </c>
       <c r="D5" t="n">
-        <v>13.11</v>
+        <v>12.21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.61000061035156</v>
+        <v>88.41999816894531</v>
       </c>
       <c r="D6" t="n">
-        <v>16.09</v>
+        <v>14.55</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>179.6300048828125</v>
+        <v>177.4600067138672</v>
       </c>
       <c r="D7" t="n">
-        <v>28.72</v>
+        <v>27.17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>108.4800033569336</v>
+        <v>108.4599990844727</v>
       </c>
       <c r="D8" t="n">
-        <v>4.23</v>
+        <v>4.21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45.72000122070312</v>
+        <v>45.54999923706055</v>
       </c>
       <c r="D9" t="n">
-        <v>3.02</v>
+        <v>2.64</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>211.3500061035156</v>
+        <v>211.75</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.44</v>
+        <v>-8.26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>94.48999786376953</v>
+        <v>94.98000335693359</v>
       </c>
       <c r="D11" t="n">
-        <v>14.37</v>
+        <v>14.96</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>202.5099945068359</v>
+        <v>203.8099975585938</v>
       </c>
       <c r="D2" t="n">
-        <v>16.84</v>
+        <v>17.59</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>232.4199981689453</v>
+        <v>229.8800048828125</v>
       </c>
       <c r="D3" t="n">
-        <v>51.92</v>
+        <v>50.26</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>112.3399963378906</v>
+        <v>112.0199966430664</v>
       </c>
       <c r="D4" t="n">
-        <v>46.79</v>
+        <v>46.37</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>68.45999908447266</v>
+        <v>67.31999969482422</v>
       </c>
       <c r="D5" t="n">
-        <v>12.21</v>
+        <v>10.34</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>88.41999816894531</v>
+        <v>89.19999694824219</v>
       </c>
       <c r="D6" t="n">
-        <v>14.55</v>
+        <v>15.56</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>177.4600067138672</v>
+        <v>177.4299926757812</v>
       </c>
       <c r="D7" t="n">
-        <v>27.17</v>
+        <v>27.14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>108.4599990844727</v>
+        <v>106.2099990844727</v>
       </c>
       <c r="D8" t="n">
-        <v>4.21</v>
+        <v>2.05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45.54999923706055</v>
+        <v>45.88000106811523</v>
       </c>
       <c r="D9" t="n">
-        <v>2.64</v>
+        <v>3.38</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>211.75</v>
+        <v>210.4799957275391</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.26</v>
+        <v>-8.81</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>94.98000335693359</v>
+        <v>63.11999893188477</v>
       </c>
       <c r="D11" t="n">
-        <v>14.96</v>
+        <v>-23.6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>203.8099975585938</v>
+        <v>201.1999969482422</v>
       </c>
       <c r="D2" t="n">
-        <v>17.59</v>
+        <v>16.09</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>229.8800048828125</v>
+        <v>211.3899993896484</v>
       </c>
       <c r="D3" t="n">
-        <v>50.26</v>
+        <v>38.17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>112.0199966430664</v>
+        <v>109.7799987792969</v>
       </c>
       <c r="D4" t="n">
-        <v>46.37</v>
+        <v>43.45</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>67.31999969482422</v>
+        <v>66.76999664306641</v>
       </c>
       <c r="D5" t="n">
-        <v>10.34</v>
+        <v>9.44</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.19999694824219</v>
+        <v>88.83999633789062</v>
       </c>
       <c r="D6" t="n">
-        <v>15.56</v>
+        <v>15.09</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>177.4299926757812</v>
+        <v>175.9799957275391</v>
       </c>
       <c r="D7" t="n">
-        <v>27.14</v>
+        <v>26.11</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106.2099990844727</v>
+        <v>104.8600006103516</v>
       </c>
       <c r="D8" t="n">
-        <v>2.05</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45.88000106811523</v>
+        <v>43.97000122070312</v>
       </c>
       <c r="D9" t="n">
-        <v>3.38</v>
+        <v>-0.92</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>210.4799957275391</v>
+        <v>212.0299987792969</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.81</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>63.11999893188477</v>
+        <v>60.29000091552734</v>
       </c>
       <c r="D11" t="n">
-        <v>-23.6</v>
+        <v>-27.03</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>201.1999969482422</v>
+        <v>204.1900024414062</v>
       </c>
       <c r="D2" t="n">
-        <v>16.09</v>
+        <v>17.81</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>211.3899993896484</v>
+        <v>214.8399963378906</v>
       </c>
       <c r="D3" t="n">
-        <v>38.17</v>
+        <v>40.43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>109.7799987792969</v>
+        <v>111.5100021362305</v>
       </c>
       <c r="D4" t="n">
-        <v>43.45</v>
+        <v>45.71</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.76999664306641</v>
+        <v>66.75</v>
       </c>
       <c r="D5" t="n">
-        <v>9.44</v>
+        <v>9.41</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>88.83999633789062</v>
+        <v>90.11000061035156</v>
       </c>
       <c r="D6" t="n">
-        <v>15.09</v>
+        <v>16.74</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>175.9799957275391</v>
+        <v>179.25</v>
       </c>
       <c r="D7" t="n">
-        <v>26.11</v>
+        <v>28.45</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>104.8600006103516</v>
+        <v>107.0400009155273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.75</v>
+        <v>2.84</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.97000122070312</v>
+        <v>43.43999862670898</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.92</v>
+        <v>-2.12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>212.0299987792969</v>
+        <v>217.1399993896484</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.140000000000001</v>
+        <v>-5.93</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>60.29000091552734</v>
+        <v>63.63999938964844</v>
       </c>
       <c r="D11" t="n">
-        <v>-27.03</v>
+        <v>-22.97</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>204.1900024414062</v>
+        <v>206.3000030517578</v>
       </c>
       <c r="D2" t="n">
-        <v>17.81</v>
+        <v>19.03</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>214.8399963378906</v>
+        <v>219.4199981689453</v>
       </c>
       <c r="D3" t="n">
-        <v>40.43</v>
+        <v>43.42</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>111.5100021362305</v>
+        <v>112.9599990844727</v>
       </c>
       <c r="D4" t="n">
-        <v>45.71</v>
+        <v>47.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.75</v>
+        <v>66.88999938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>9.41</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>90.11000061035156</v>
+        <v>90.58999633789062</v>
       </c>
       <c r="D6" t="n">
-        <v>16.74</v>
+        <v>17.36</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>179.25</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="D7" t="n">
-        <v>28.45</v>
+        <v>29.08</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>107.0400009155273</v>
+        <v>107.8499984741211</v>
       </c>
       <c r="D8" t="n">
-        <v>2.84</v>
+        <v>3.62</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.43999862670898</v>
+        <v>43.36000061035156</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.12</v>
+        <v>-2.3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>217.1399993896484</v>
+        <v>223.7799987792969</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.93</v>
+        <v>-3.05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>63.63999938964844</v>
+        <v>63.66999816894531</v>
       </c>
       <c r="D11" t="n">
-        <v>-22.97</v>
+        <v>-22.94</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>206.3000030517578</v>
+        <v>204.1999969482422</v>
       </c>
       <c r="D2" t="n">
-        <v>19.03</v>
+        <v>17.82</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>219.4199981689453</v>
+        <v>220.1000061035156</v>
       </c>
       <c r="D3" t="n">
-        <v>43.42</v>
+        <v>43.87</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>112.9599990844727</v>
+        <v>110.7300033569336</v>
       </c>
       <c r="D4" t="n">
-        <v>47.6</v>
+        <v>44.69</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.88999938964844</v>
+        <v>66.37999725341797</v>
       </c>
       <c r="D5" t="n">
-        <v>9.640000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>90.58999633789062</v>
+        <v>89.91000366210938</v>
       </c>
       <c r="D6" t="n">
-        <v>17.36</v>
+        <v>16.48</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>180.1300048828125</v>
+        <v>175.3500061035156</v>
       </c>
       <c r="D7" t="n">
-        <v>29.08</v>
+        <v>25.65</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>107.8499984741211</v>
+        <v>106.0299987792969</v>
       </c>
       <c r="D8" t="n">
-        <v>3.62</v>
+        <v>1.87</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.36000061035156</v>
+        <v>42.4900016784668</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.3</v>
+        <v>-4.26</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>223.7799987792969</v>
+        <v>219.75</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.05</v>
+        <v>-4.8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>63.66999816894531</v>
+        <v>61.86000061035156</v>
       </c>
       <c r="D11" t="n">
-        <v>-22.94</v>
+        <v>-25.13</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>204.1999969482422</v>
+        <v>204.2700042724609</v>
       </c>
       <c r="D2" t="n">
-        <v>17.82</v>
+        <v>17.86</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>220.1000061035156</v>
+        <v>220.9299926757812</v>
       </c>
       <c r="D3" t="n">
-        <v>43.87</v>
+        <v>44.41</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>110.7300033569336</v>
+        <v>111.0599975585938</v>
       </c>
       <c r="D4" t="n">
-        <v>44.69</v>
+        <v>45.12</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.37999725341797</v>
+        <v>65.98000335693359</v>
       </c>
       <c r="D5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.91000366210938</v>
+        <v>89.31999969482422</v>
       </c>
       <c r="D6" t="n">
-        <v>16.48</v>
+        <v>15.71</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>175.3500061035156</v>
+        <v>175.0500030517578</v>
       </c>
       <c r="D7" t="n">
-        <v>25.65</v>
+        <v>25.44</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106.0299987792969</v>
+        <v>107.2300033569336</v>
       </c>
       <c r="D8" t="n">
-        <v>1.87</v>
+        <v>3.03</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.4900016784668</v>
+        <v>42.18999862670898</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.26</v>
+        <v>-4.93</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>219.75</v>
+        <v>222.1799926757812</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.8</v>
+        <v>-3.74</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>61.86000061035156</v>
+        <v>62.25</v>
       </c>
       <c r="D11" t="n">
-        <v>-25.13</v>
+        <v>-24.66</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>204.2700042724609</v>
+        <v>205.2700042724609</v>
       </c>
       <c r="D2" t="n">
-        <v>17.86</v>
+        <v>18.43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>220.9299926757812</v>
+        <v>226.5599975585938</v>
       </c>
       <c r="D3" t="n">
-        <v>44.41</v>
+        <v>48.09</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>111.0599975585938</v>
+        <v>113.1100006103516</v>
       </c>
       <c r="D4" t="n">
-        <v>45.12</v>
+        <v>47.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>65.98000335693359</v>
+        <v>66.73000335693359</v>
       </c>
       <c r="D5" t="n">
-        <v>8.15</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.31999969482422</v>
+        <v>89.73000335693359</v>
       </c>
       <c r="D6" t="n">
-        <v>15.71</v>
+        <v>16.25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>175.0500030517578</v>
+        <v>175.7599945068359</v>
       </c>
       <c r="D7" t="n">
-        <v>25.44</v>
+        <v>25.95</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>107.2300033569336</v>
+        <v>107.0199966430664</v>
       </c>
       <c r="D8" t="n">
-        <v>3.03</v>
+        <v>2.82</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.18999862670898</v>
+        <v>42.45000076293945</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.93</v>
+        <v>-4.35</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>222.1799926757812</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.74</v>
+        <v>-1.14</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>62.25</v>
+        <v>63.0099983215332</v>
       </c>
       <c r="D11" t="n">
-        <v>-24.66</v>
+        <v>-23.74</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>205.2700042724609</v>
+        <v>206.3399963378906</v>
       </c>
       <c r="D2" t="n">
-        <v>18.43</v>
+        <v>19.05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>226.5599975585938</v>
+        <v>233.5099945068359</v>
       </c>
       <c r="D3" t="n">
-        <v>48.09</v>
+        <v>52.63</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>113.1100006103516</v>
+        <v>113.1399993896484</v>
       </c>
       <c r="D4" t="n">
-        <v>47.8</v>
+        <v>47.84</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>66.73000335693359</v>
+        <v>65.98000335693359</v>
       </c>
       <c r="D5" t="n">
-        <v>9.380000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>89.73000335693359</v>
+        <v>90.18000030517578</v>
       </c>
       <c r="D6" t="n">
-        <v>16.25</v>
+        <v>16.83</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>175.7599945068359</v>
+        <v>176.1199951171875</v>
       </c>
       <c r="D7" t="n">
-        <v>25.95</v>
+        <v>26.21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>107.0199966430664</v>
+        <v>106.2399978637695</v>
       </c>
       <c r="D8" t="n">
-        <v>2.82</v>
+        <v>2.08</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>42.45000076293945</v>
+        <v>43.68000030517578</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.35</v>
+        <v>-1.58</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>228.1999969482422</v>
+        <v>228.6399993896484</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.14</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>63.0099983215332</v>
+        <v>63.59000015258789</v>
       </c>
       <c r="D11" t="n">
-        <v>-23.74</v>
+        <v>-23.03</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>

--- a/data/top10.xlsx
+++ b/data/top10.xlsx
@@ -507,14 +507,14 @@
         <v>173.32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>206.3399963378906</v>
+        <v>206.8899993896484</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05</v>
+        <v>19.37</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         <v>152.99</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>233.5099945068359</v>
+        <v>242.1199951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>52.63</v>
+        <v>58.26</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         <v>76.53</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>113.1399993896484</v>
+        <v>113.3499984741211</v>
       </c>
       <c r="D4" t="n">
-        <v>47.84</v>
+        <v>48.11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>61.01</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>65.98000335693359</v>
+        <v>65.65000152587891</v>
       </c>
       <c r="D5" t="n">
-        <v>8.15</v>
+        <v>7.61</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>77.19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>90.18000030517578</v>
+        <v>90.68000030517578</v>
       </c>
       <c r="D6" t="n">
-        <v>16.83</v>
+        <v>17.48</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         <v>139.55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>176.1199951171875</v>
+        <v>177.2299957275391</v>
       </c>
       <c r="D7" t="n">
-        <v>26.21</v>
+        <v>27</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <v>104.08</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106.2399978637695</v>
+        <v>105.6399993896484</v>
       </c>
       <c r="D8" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         <v>44.38</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43.68000030517578</v>
+        <v>43.77999877929688</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.58</v>
+        <v>-1.35</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <v>230.82</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>228.6399993896484</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.42</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>82.62</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>63.59000015258789</v>
+        <v>64.66999816894531</v>
       </c>
       <c r="D11" t="n">
-        <v>-23.03</v>
+        <v>-21.73</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
